--- a/results/2019年第3季.xlsx
+++ b/results/2019年第3季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7574 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>378</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1,485,828</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1,372,706</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>696,718</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>592,998</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>638,323</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>399,197</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-774,593</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>629,035</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1,318,959</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,166,623</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>5,737,155</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7,127,018</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,638,164</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,788,877</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,495,865</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,223,339</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-1,674,136</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-1,072,174</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-450,084</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>13,111,651</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>13,021,484</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>41,543,230</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>75</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16,106,704</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5,546,399</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4,081,767</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3,230,431</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3,280,523</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-2,106,402</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-778,998</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>792,608</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>62,633,896</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39,056,719</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>110,125,449</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12,393,903</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3,398,235</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,733,438</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,632,528</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>705,862</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-423,587</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-2,564,850</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>549,187</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7,929,397</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>3,137,183</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>35,846,068</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>780</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>687,270</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>431,130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>285,347</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>232,662</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>175,160</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>335,940</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-264,110</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>141,745</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1,049,297</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>103,179</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>3,446,321</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20,351,835</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2,129,899</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,193,645</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1,275,569</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3,591,161</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>185,800</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-3,097,179</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>3,025,280</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>29,099,744</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>5,871,269</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>51,936,225</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4,730</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-2,054</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-85,389</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-54,185</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-48,634</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>130,259</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-4,788</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-56,635</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>576,204</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>627,199</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>7,225,806</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>262</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6,403,619</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,692,774</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,012,054</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1,636,716</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2,803,186</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-1,563,287</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-410,208</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1,687,379</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>12,023,513</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>17,569,406</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>40,580,065</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,795,471</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>643,836</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>398,519</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>340,979</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>165,732</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-164,718</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-67,901</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-6,562</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>3,894,190</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1,409,327</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>6,963,068</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5,448,800</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,930,259</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,561,397</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1,199,955</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,449,850</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-1,325,793</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-1,439,701</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>111,804</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>11,341,149</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>17,245,112</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>40,151,886</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5,389,590</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>774,639</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>377,911</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>308,224</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>196,467</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-348,079</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>293,687</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-179,813</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>10,356,032</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>8,219,212</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>18,033,897</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8,048,509</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>510,684</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25,484</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>177,712</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>262,064</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-3,699,881</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-450,800</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-899,780</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>24,821,598</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>21,819,125</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>91,647,634</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>264,287</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>49,177</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-7,786</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>11,704</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>52,891</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>131,010</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-2,531</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>48,481</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>775,749</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>347,320</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,422,675</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>219</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20,238,472</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7,434,812</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>702,832</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>612,375</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4,440,969</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-261,410</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-1,363,785</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>3,979,221</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>53,438,263</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>11,638,661</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>59,243,382</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>586,949</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>199,394</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67,806</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>64,348</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>19,638</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-6,430</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-101,385</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-55,751</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,697,331</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>840,929</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>4,263,821</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,154,068</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>723,145</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>464,470</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>349,946</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1,141,989</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-438,572</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-621,444</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>561,381</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>7,676,930</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>10,948,052</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>18,708,028</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>34.55</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5,332,242</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,364,685</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>493,147</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>168,420</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>350,118</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-440,193</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-400,433</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>272,538</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>13,826,239</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2,563,555</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>31,515,212</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1,709,055</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>417,088</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>44,716</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>37,228</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>59,666</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-57,173</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-91,255</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>9,592</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>3,357,395</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>524,164</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>4,503,154</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,670,306</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>443,814</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>367,116</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>351,013</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>381,955</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-76,012</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-43,177</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>304,509</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3,643,113</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>3,620,623</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>6,727,804</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>54</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>633,924</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>142,087</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>17,890</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>16,844</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-160,777</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-130,073</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-17,437</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-283,803</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1,155,298</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>874,731</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>3,682,493</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2,470,868</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>423,417</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>236,363</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>187,290</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>401,897</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-126,422</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-36,772</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>281,013</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>5,320,180</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2,309,812</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>10,355,882</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>43,375</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30,301</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-24,513</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-24,825</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-2,646</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-13,176</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>7,081</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-4,144</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>111,910</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-5.86</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-4.65</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>137,035</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>523,118</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>665,658</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>215,273</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>154,847</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>128,385</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-76,602</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-315,143</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-83,562</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-381,482</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>809,243</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,233,348</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3,664,276</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,467,362</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>600,771</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>163,201</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>142,734</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>110,037</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-118,093</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-28,576</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2,392</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,515,632</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2,839,045</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7,749,383</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>41.15</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5,834,893</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>615,322</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>165,805</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>197,294</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>282,674</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-198,989</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-428,639</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>178,498</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>7,823,122</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>4,742,889</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>12,617,081</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>52</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6,492,848</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1,053,077</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>401,086</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>422,880</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-3,251,166</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-49,277</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1,794,181</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-3,292,862</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>18,528,310</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5,599,354</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>26,497,434</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2,203</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-59,862</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-78,536</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-70,156</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-138,087</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-373</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-70,156</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>139,163</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-6.66</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-5.97</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>6,283</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1,279,964</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5,567,503</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>152,382</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25,091</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>33,301</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-1,529,903</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-251,012</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1,033,147</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-1,636,269</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>24,623,175</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,849,398</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>32,030,450</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>128</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,917,144</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>610,174</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>383,513</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>296,769</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-98,531</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-312,315</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-376,022</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-103,213</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,419,391</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1,337,709</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>5,677,929</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1,126,331</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>167,873</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>48,529</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>48,627</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>311,259</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1,469</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-154,349</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>306,584</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2,375,490</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>927,097</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>3,910,641</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8,931,125</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,487,232</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>170,083</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>166,205</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2,097,323</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-584,002</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-1,323,506</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1,621,152</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>24,868,282</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,331,599</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>40,523,368</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>129,936</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-42,612</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-51,483</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-29,794</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>27,374</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>10,676</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>27,211</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>224,902</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-1.26</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-1.15</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>348,850</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,578,690</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>178,250</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>69,926</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>17,041</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>12,904</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-3,286</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-2,077</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-53,856</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>-4,770</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>284,606</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>189,022</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>753,777</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>90,695,068</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6,377,352</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2,607,998</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2,658,511</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2,681,866</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-4,409,247</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-8,404,656</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>-3,632,592</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>344,979,156</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>390,906,522</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>683,473,878</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,641,945</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-44,625</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-108,732</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-157,384</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-19,695</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-845,229</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>860,887</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-841,010</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>16,791,205</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-2.64</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>18,029,655</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>22,858,867</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>668,180</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-57,586</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-71,393</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-67,714</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>49,889</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-9,795</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-101,343</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>40,094</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,420,641</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-1.84</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-1.27</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>855,198</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>5,051,053</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>474,276</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>260,534</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20,869</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>18,949</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>70,819</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-15,221</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-76,420</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>60,311</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1,617,844</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>806,273</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2,577,104</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>102,086</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>30,312</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-21,986</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-995,922</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-3,434</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1,126,538</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-996,140</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>7,705,798</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>-0.88</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>22,138</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>10,196,006</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>194,846</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>27,005</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-6,208</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-8,324</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2,065</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-26,389</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>27,089</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-25,132</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>496,442</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-1.11</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>236,238</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,235,781</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>378,661</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>68,862</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24,030</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>23,227</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>91,472</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-1,725</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-107,146</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>89,747</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>219,205</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>245,260</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,636,941</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>47</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>333,327</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>97,482</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25,785</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>20,433</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-18,567</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-4,148</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>55,880</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>-22,624</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>932,968</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>761,069</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,974,767</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>33.05</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>270,085</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12,603</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-83,197</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-83,880</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-10,706</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-65,163</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-11,019</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-91,302</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,639,728</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-5.71</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-2.69</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>521,767</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>3,070,047</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>500,139</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>67,861</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3,459</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1,444</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>159,170</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-219,865</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>114,416</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-58,145</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,782,502</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1,025,844</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>3,149,314</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5,658,459</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,846,956</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>331,442</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>124,561</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>633,141</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-213,251</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-641,443</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>382,274</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>12,847,505</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>9,910,904</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>19,866,658</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1,561,664</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>501,134</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83,213</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>84,740</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>26,819</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-44,844</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1,202</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>13,884</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>6,748,986</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>3,023,234</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>13,116,191</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>121,082,100</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>42,687,702</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>8,574,210</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7,646,656</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>24,590,476</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-7,338,981</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-15,325,105</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>20,003,607</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>299,601,118</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>131,562,021</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>471,245,746</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1,904,329</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>214,632</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-153,860</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-140,324</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>57,413</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-94,720</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-21,657</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>-174,699</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>10,081,176</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-1.05</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>11,897,705</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>23,328,175</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1,768,089</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>239,801</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-87,970</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-266,310</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-466,942</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-368,630</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>162,844</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-564,566</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>3,796,831</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-1.35</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-1.10</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>8,253,244</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>23,331,897</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>63,293,735</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1,176,750</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-4,852,078</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-3,886,175</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1,970,349</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>9,217,089</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-7,466,436</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>-3,063,426</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>140,939,752</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>-0.92</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>198,296,981</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>383,038,012</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>14,799,353</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4,136,925</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2,252,191</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2,204,797</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>5,102,841</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-1,061,498</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-21,706,341</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>3,996,431</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>13,864,950</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>88,662,250</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>165,647,598</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>662,987</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>131,970</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>45,452</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-30,953</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-76,254</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>75,441</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-146,194</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>-77,938</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>7,661,326</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-2.44</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,367,060</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>8,913,467</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>74</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,387,792,029</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>83,382,222</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>33,491,454</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>33,817,756</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>4,182,321</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>33,656,817</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-34,993,342</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>-16,306,449</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2,073,982,977</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>272,040,082</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>3,415,082,056</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3,052,067</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>146,434</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>45,218</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>402,177</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>596,793</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-591,173</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-162,497</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>563,465</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>16,245,872</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>855,967</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>27,830,863</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>8,308,453</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4,495,308</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>791,162</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>470,298</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1,664,373</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-373,711</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>63,495</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1,136,673</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>86,698,096</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>33,958,086</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>124,178,897</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>774,160</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>73,398</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>-176,493</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4,245,639</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-305,165</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>390,680</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-555,341</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-311,106</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>33,483,317</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,295,431</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>118,853,697</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>135,336</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14,026</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2,672</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2,619</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-53,582</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-11,875</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>-55,147</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>163,124</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>352,713</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,434,107</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>25</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>10,406,109</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,094,554</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>655,154</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>565,871</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2,049,188</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-413,780</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-458,833</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1,557,266</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>33,294,067</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>17,491,742</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>55,109,643</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>27,631,531</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5,852,376</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1,489,599</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>298,154</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>4,071,872</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-1,705,675</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-3,813,021</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2,369,096</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>88,260,840</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>99,018,243</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>166,597,076</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>110</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>50,848,160</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>17,829,031</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>10,009,333</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8,445,995</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>19,672,341</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>4,172,348</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-36,350,910</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>13,631,046</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>91,220,789</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>282,108,127</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>467,703,756</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3,982,148</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>655,613</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>65,270</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>87,741</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>759,568</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>130,318</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-544,853</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>733,980</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>4,475,996</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>1,677,367</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>14,401,703</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>34,951</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>25,137</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-63,010</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-25,749</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-223,354</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-88,444</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>85,971</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-223,355</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>12,739,123</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>20,170,096</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>160,011,988</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11,612,745</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>8,948,764</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>12,427,166</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>21,309,117</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>680,943</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-45,433,012</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>19,464,368</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>70,366,146</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>103,075,166</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>399,185,048</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,964,045</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>736,556</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>116,885</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>98,272</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>121,010</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-92,142</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>63,497</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>24,972</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>5,567,102</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,172,488</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>11,414,415</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>100</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,969,931</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1,031,204</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>291,658</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>200,018</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-228,809</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-94,526</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>324,897</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-242,520</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>10,393,627</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,786,889</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>18,052,488</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,178,731</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,295,365</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>495,597</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>425,523</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,121,932</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-716,333</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-697,591</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>494,176</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>14,658,640</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>20,457,959</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>36,885,925</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>7,919,366</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,130,152</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>304,747</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,977,252</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>3,626,678</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>6,774,810</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-5,314,666</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>3,488,509</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>7,546,253</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,924,128</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>27,348,947</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,113,682</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>254,325</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>104,695</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>64,113</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>102,010</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-49,985</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-213,646</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>52,036</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>6,969,063</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>10,301,603</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>12,914,986</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>49,855,977</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3,883,739</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1,362,430</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>87,364</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>5,203,204</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-4,848,809</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2,999,495</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>3,056,739</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>239,241,791</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>110,671,398</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>310,109,323</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>9</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>970,290</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>117,127</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>64,007</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-81,222</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>267,954</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>83,139</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-221,580</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>223,049</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>20,235,263</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-1.54</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>23,736,338</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>25,457,484</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>61,710,428</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11,556,612</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3,860,876</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4,519,750</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>19,031,275</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-6,965,689</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-34,074,437</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>13,358,387</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>286,131,959</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>162,268,005</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>553,120,187</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>189,979</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-20,423</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5,837</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-3,260</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-33,046</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>68,879</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-23,004</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,580,406</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,637,513</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,599,587</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>35.45</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>554,204</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>176,665</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>65,076</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>46,796</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>16,845</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>11,350</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-129,080</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-32,561</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>745,946</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>1,161,238</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2,415,902</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>37,738,440</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6,432,520</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2,508,748</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1,938,409</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-3,079,565</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-3,967,704</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>4,136,664</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-6,180,351</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>169,000,173</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>148,946,333</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>374,044,467</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,129,617</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>395,352</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>189,011</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>142,929</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>192,078</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-95,100</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-348,754</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>127,479</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>4,674,967</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,630,258</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10,592,104</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>31</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1,007,554</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>176,254</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>43,739</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>102,699</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>199,480</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-249,739</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>159,539</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-145,366</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2,444,877</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1,529,423</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>5,318,123</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>7,041,212</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2,180,404</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1,392,452</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1,045,665</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>3,662,094</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-4,056,154</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>736,086</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-415,484</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>28,513,809</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>36,418,308</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>53,702,606</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>36.65</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>87,449,657</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3,650,771</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1,309,736</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,743,680</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>8,831,316</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-15,076,324</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1,677,562</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>8,719,011</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>96,674,968</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,420,286</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>147,578,789</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5,095,642</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>768,887</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>95,637</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>66,708</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>790,784</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-50,290</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-223,303</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>783,517</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>9,541,251</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,640,257</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>14,146,796</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>14,558,500</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1,153,611</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>465,102</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>499,150</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-716,411</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-200,566</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>240,635</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>-927,270</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>21,279,659</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>3,568,997</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>34,280,827</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>10,793,497</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>480,665</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>218,929</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>123,249</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>563,215</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-2,611</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-355,679</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>560,124</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>9,487,462</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>301,109</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>12,285,155</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>671,871</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>245,347</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>19,666</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>153,900</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>170,906</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-21,389</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-115,862</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>45,021</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1,440,689</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>5,396,854</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11,989,504</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>609,877</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>158,290</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-18,922</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-34,078</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>47,693</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-9,599</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-120,129</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>37,666</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>10,550,809</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-2.02</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>6,330,146</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>12,222,166</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>166</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,612,806</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>530,173</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>321,090</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>294,213</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1,061,194</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>317,867</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-984,281</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>1,019,094</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>8,301,558</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2,667,043</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>11,619,232</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>308,918</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>264,912</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-48,486</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-60,991</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>94,568</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-57,158</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>189,614</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>34,451</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>4,717,910</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-3.74</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>1,035,040</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>6,273,464</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>204</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>19,968,103</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5,024,653</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2,522,486</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2,040,733</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2,841,212</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-1,682,185</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-2,684,174</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>1,107,122</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>20,366,492</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>16,744,003</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>38,945,128</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>16,980,524</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,904,012</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1,468,048</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1,076,655</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-2,701</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-1,554,094</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2,939,949</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-851,079</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>36,251,164</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>9,920,301</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>59,175,011</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>11,601,033</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2,989,812</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>936,973</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>872,705</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2,777,373</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-359,652</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-2,193,164</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2,338,365</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>37,512,387</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>16,883,836</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>98,036,047</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1,002,153</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>222,899</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>75,355</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>74,272</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>48,429</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-6,547</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>168,170</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>37,494</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,908,755</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>1,005,960</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>5,879,643</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>6,222,680</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,204,847</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>480,740</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>424,031</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>535,574</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-123,321</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-403,092</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>385,738</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>16,747,977</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>6,586,004</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>40,959,287</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>249,923,397</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8,062,887</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,419,849</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2,044,168</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>5,814,779</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-42,769</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-16,403,340</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>5,015,160</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>303,978,108</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>19,880,190</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>417,690,386</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>205</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>93,946,499</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>16,412,400</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5,795,223</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5,808,837</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2,987,391</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>621,281</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-12,171,560</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>863,044</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>163,449,993</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>21,766,147</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>337,149,433</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>42,804,005</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>6,067,134</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1,737,849</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1,216,131</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>3,201,366</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>783,381</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-2,794,126</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2,614,594</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>86,159,363</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>22,610,502</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>132,295,059</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>14,382,282</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5,697,040</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2,632,589</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2,157,044</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>4,208,909</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-341,899</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-4,627,092</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>4,059,285</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>14,419,349</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,754,044</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>45,390,595</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>17,665,992</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,927,653</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>724,112</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>810,955</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1,554,710</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>21,015</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-1,906,744</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>1,411,910</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>15,854,113</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>3,967,031</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>39,523,386</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>167,002</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>67,515</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>13,152</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>11,068</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>56,815</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-16,529</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-61,135</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>55,945</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>436,683</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>6,826</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,154,337</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3,178,121</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>333,203</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>128,862</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>119,360</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-116,297</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-7,908</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>304,023</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-123,644</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,278,363</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>1,002,390</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>7,784,939</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1,131,207</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>594,309</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>195,044</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>149,181</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>249,367</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-102,360</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>-428</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>249,062</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>788,058</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>9,595</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2,163,788</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
